--- a/Config/Excel/Datas/__enums__.xlsx
+++ b/Config/Excel/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13608"/>
+    <workbookView windowWidth="30720" windowHeight="13644"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -52,25 +52,240 @@
     <t>##</t>
   </si>
   <si>
-    <t>全名(包含模块和名字)</t>
-  </si>
-  <si>
-    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-  </si>
-  <si>
-    <t>枚举项是否唯一</t>
-  </si>
-  <si>
-    <t>枚举名</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包含模块和名字</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否为位标记枚举（即每个枚举项为位标记数据，例如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>System.IO.FileMode,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填数据时可以为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>READ|WRITE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这样</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枚举项是否唯一</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枚举名</t>
+    </r>
   </si>
   <si>
     <t>别名</t>
   </si>
   <si>
-    <t>值</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>EquipPosition</t>
+  </si>
+  <si>
+    <t>装备位置</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>Cloth</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>Shoe</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>护肩</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>OffHands</t>
+  </si>
+  <si>
+    <t>副手</t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>Equip</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>Consumable</t>
+  </si>
+  <si>
+    <t>消耗品</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>Rider</t>
+  </si>
+  <si>
+    <t>坐骑</t>
   </si>
 </sst>
 </file>
@@ -83,13 +298,39 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -236,7 +477,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,78 +486,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -430,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -439,17 +698,149 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +950,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,148 +962,220 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1033,110 +1496,479 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="B4:K12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J21" sqref="B19:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.8796296296296" customWidth="1"/>
-    <col min="4" max="5" width="14.1203703703704" customWidth="1"/>
-    <col min="6" max="6" width="9.37037037037037" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5092592592593" customWidth="1"/>
-    <col min="9" max="9" width="5.25" customWidth="1"/>
-    <col min="10" max="10" width="12.1203703703704" customWidth="1"/>
-    <col min="11" max="11" width="15.1203703703704" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.33333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.1111111111111" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.33333333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.33333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.1111111111111" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="99" customHeight="1" spans="1:12">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="52.95" spans="1:12">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="24"/>
+    </row>
+    <row r="4" ht="18.15" spans="1:12">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="16" t="str">
+        <f>K4</f>
+        <v>无</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="19" t="str">
+        <f t="shared" ref="I5:I11" si="0">K5</f>
+        <v>头盔</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>衣服</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>鞋子</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>护肩</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>武器</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>副手</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>裤子</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="19" t="str">
+        <f>K13</f>
+        <v>全部</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="22" t="str">
+        <f>K14</f>
+        <v>装备</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="19" t="str">
+        <f>K15</f>
+        <v>消耗品</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="22" t="str">
+        <f>K16</f>
+        <v>材料</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="19" t="str">
+        <f>K17</f>
+        <v>坐骑</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Config/Excel/Datas/__enums__.xlsx
+++ b/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
   <si>
     <t>##var</t>
   </si>
@@ -204,6 +204,9 @@
     <t>装备位置</t>
   </si>
   <si>
+    <t>display</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
@@ -286,6 +289,216 @@
   </si>
   <si>
     <t>坐骑</t>
+  </si>
+  <si>
+    <t>NumericType</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>SpeedBase</t>
+  </si>
+  <si>
+    <t>SpeedAdd</t>
+  </si>
+  <si>
+    <t>SpeedPct</t>
+  </si>
+  <si>
+    <t>SpeedFinalAdd</t>
+  </si>
+  <si>
+    <t>SpeedFinalPct</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>MaxHpBase</t>
+  </si>
+  <si>
+    <t>MaxHpAdd</t>
+  </si>
+  <si>
+    <t>MaxHpPct</t>
+  </si>
+  <si>
+    <t>MaxHpFinalAdd</t>
+  </si>
+  <si>
+    <t>MaxHpFinalPct</t>
+  </si>
+  <si>
+    <t>AOI</t>
+  </si>
+  <si>
+    <t>AOIBase</t>
+  </si>
+  <si>
+    <t>AOIAdd</t>
+  </si>
+  <si>
+    <t>AOIPct</t>
+  </si>
+  <si>
+    <t>AOIFinalAdd</t>
+  </si>
+  <si>
+    <t>AOIFinalPct</t>
+  </si>
+  <si>
+    <t>MaxMp</t>
+  </si>
+  <si>
+    <t>MaxMpBase</t>
+  </si>
+  <si>
+    <t>MaxMpAdd</t>
+  </si>
+  <si>
+    <t>MaxMpPct</t>
+  </si>
+  <si>
+    <t>MaxMpFinalAdd</t>
+  </si>
+  <si>
+    <t>MaxMpFinalPct</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>ADBase</t>
+  </si>
+  <si>
+    <t>ADAdd</t>
+  </si>
+  <si>
+    <t>ADPct</t>
+  </si>
+  <si>
+    <t>ADFinalAdd</t>
+  </si>
+  <si>
+    <t>ADFinalPct</t>
+  </si>
+  <si>
+    <t>AdditionalAD</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>HpBase</t>
+  </si>
+  <si>
+    <t>HpAdd</t>
+  </si>
+  <si>
+    <t>HpPct</t>
+  </si>
+  <si>
+    <t>HpFinalAdd</t>
+  </si>
+  <si>
+    <t>HpFinalPct</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MPBase</t>
+  </si>
+  <si>
+    <t>MPAdd</t>
+  </si>
+  <si>
+    <t>MPPct</t>
+  </si>
+  <si>
+    <t>MPFinalAdd</t>
+  </si>
+  <si>
+    <t>MPFinalPct</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>DEFBase</t>
+  </si>
+  <si>
+    <t>DEFAdd</t>
+  </si>
+  <si>
+    <t>DEFPct</t>
+  </si>
+  <si>
+    <t>DEFFinalAdd</t>
+  </si>
+  <si>
+    <t>DEFFinalPct</t>
+  </si>
+  <si>
+    <t>DEFAddition</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>DodgeBase</t>
+  </si>
+  <si>
+    <t>DodgeAdd</t>
+  </si>
+  <si>
+    <t>DodgePct</t>
+  </si>
+  <si>
+    <t>DodgeFinalAdd</t>
+  </si>
+  <si>
+    <t>DodgeFinalPct</t>
+  </si>
+  <si>
+    <t>DodgeAddition</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CRIBase</t>
+  </si>
+  <si>
+    <t>CRIAdd</t>
+  </si>
+  <si>
+    <t>CRIPct</t>
+  </si>
+  <si>
+    <t>CRIFinalAdd</t>
+  </si>
+  <si>
+    <t>CRIFinalPct</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>APBase</t>
+  </si>
+  <si>
+    <t>APAdd</t>
+  </si>
+  <si>
+    <t>APPct</t>
+  </si>
+  <si>
+    <t>APFinalAdd</t>
+  </si>
+  <si>
+    <t>APFinalPct</t>
   </si>
 </sst>
 </file>
@@ -477,7 +690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,18 +705,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -689,7 +890,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -778,11 +979,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color theme="0"/>
       </top>
       <bottom style="thin">
@@ -794,52 +995,11 @@
       <left style="thin">
         <color theme="0"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
       <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
         <color theme="0"/>
       </bottom>
       <diagonal/>
@@ -950,103 +1110,109 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,19 +1221,19 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,23 +1242,17 @@
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1105,6 +1265,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,46 +1298,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1229,6 +1365,104 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1236,6 +1470,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A4:L86" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="列1" dataDxfId="0"/>
+    <tableColumn id="2" name="列2" dataDxfId="1"/>
+    <tableColumn id="3" name="列3" dataDxfId="2"/>
+    <tableColumn id="4" name="列4" dataDxfId="3"/>
+    <tableColumn id="5" name="列5" dataDxfId="4"/>
+    <tableColumn id="6" name="列6" dataDxfId="5"/>
+    <tableColumn id="7" name="列7" dataDxfId="6"/>
+    <tableColumn id="8" name="列8" dataDxfId="7"/>
+    <tableColumn id="9" name="列9" dataDxfId="8"/>
+    <tableColumn id="10" name="列10" dataDxfId="9"/>
+    <tableColumn id="11" name="列11" dataDxfId="10"/>
+    <tableColumn id="12" name="列12" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1496,10 +1750,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="B19:J21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -1510,8 +1764,8 @@
     <col min="4" max="4" width="17.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.33333333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.1111111111111" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.1111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.1111111111111" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.33333333333333" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.33333333333333" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.1111111111111" style="3" customWidth="1"/>
@@ -1520,93 +1774,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="52.95" spans="1:12">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" ht="18.15" spans="1:12">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
@@ -1616,359 +1870,1393 @@
       <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="16" t="str">
-        <f>K4</f>
-        <v>无</v>
+        <v>22</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="19" t="str">
-        <f t="shared" ref="I5:I11" si="0">K5</f>
-        <v>头盔</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="I5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>衣服</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="27"/>
+      <c r="I6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>鞋子</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="I7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>护肩</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="27"/>
+      <c r="I8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>武器</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="I9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>副手</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="27"/>
+      <c r="I10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>裤子</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="26"/>
+      <c r="I11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="27"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="19" t="str">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="16" t="str">
         <f>K13</f>
         <v>全部</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="26"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="22" t="str">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="16" t="str">
         <f>K14</f>
         <v>装备</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="27"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="19" t="str">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="16" t="str">
         <f>K15</f>
         <v>消耗品</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="26"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="22" t="str">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="16" t="str">
         <f>K16</f>
         <v>材料</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="27"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="19" t="str">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="16" t="str">
         <f>K17</f>
         <v>坐骑</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="26"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="27"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="26"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" ht="16.2" spans="1:12">
       <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="27"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" ht="16.2" spans="1:12">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" ht="16.2" spans="1:12">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" ht="16.2" spans="1:12">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" ht="16.2" spans="1:12">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" ht="16.2" spans="1:12">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" ht="16.2" spans="1:12">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" ht="16.2" spans="1:12">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" ht="16.2" spans="1:12">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" ht="16.2" spans="1:12">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" ht="16.2" spans="1:12">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" ht="16.2" spans="1:12">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" ht="16.2" spans="1:12">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" ht="16.2" spans="1:12">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" ht="16.2" spans="1:12">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" ht="16.2" spans="1:12">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" ht="16.2" spans="1:12">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" ht="16.2" spans="1:12">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" ht="16.2" spans="1:12">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" ht="16.2" spans="1:12">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" ht="16.2" spans="1:12">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" ht="16.2" spans="1:12">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" ht="16.2" spans="1:12">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" ht="16.2" spans="1:12">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" ht="16.2" spans="1:12">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" ht="16.2" spans="1:12">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" ht="16.2" spans="1:12">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" ht="16.2" spans="1:12">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" ht="16.2" spans="1:12">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" ht="16.2" spans="1:12">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" ht="16.2" spans="1:12">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+    </row>
+    <row r="52" ht="16.2" spans="1:12">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+    </row>
+    <row r="53" ht="16.2" spans="1:12">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" ht="16.2" spans="1:12">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" ht="16.2" spans="1:12">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" ht="16.2" spans="1:12">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+    </row>
+    <row r="57" ht="16.2" spans="1:12">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" ht="16.2" spans="1:12">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" ht="16.2" spans="1:12">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" ht="16.2" spans="1:12">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" ht="16.2" spans="1:12">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+    </row>
+    <row r="62" ht="16.2" spans="1:12">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+    </row>
+    <row r="63" ht="16.2" spans="1:12">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" ht="16.2" spans="1:12">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" ht="16.2" spans="1:12">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+    </row>
+    <row r="66" ht="16.2" spans="1:12">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" ht="16.2" spans="1:12">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" ht="16.2" spans="1:12">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+    </row>
+    <row r="69" ht="16.2" spans="1:12">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+    </row>
+    <row r="70" ht="16.2" spans="1:12">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+    </row>
+    <row r="71" ht="16.2" spans="1:12">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+    </row>
+    <row r="72" ht="16.2" spans="1:12">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" ht="16.2" spans="1:12">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+    </row>
+    <row r="74" ht="16.2" spans="1:12">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" ht="16.2" spans="1:12">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" ht="16.2" spans="1:12">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" ht="16.2" spans="1:12">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" ht="16.2" spans="1:12">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+    </row>
+    <row r="79" ht="16.2" spans="1:12">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+    </row>
+    <row r="80" ht="16.2" spans="1:12">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" ht="16.2" spans="1:12">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+    </row>
+    <row r="82" ht="16.2" spans="1:12">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+    </row>
+    <row r="83" ht="16.2" spans="1:12">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+    </row>
+    <row r="84" ht="16.2" spans="1:12">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+    </row>
+    <row r="85" ht="16.2" spans="1:12">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+    </row>
+    <row r="86" ht="16.2" spans="1:12">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1977,5 +3265,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Config/Excel/Datas/__enums__.xlsx
+++ b/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
   <si>
     <t>##var</t>
   </si>
@@ -499,6 +499,63 @@
   </si>
   <si>
     <t>APFinalPct</t>
+  </si>
+  <si>
+    <t>TaskType</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>RoleClass</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>TaskTargetType</t>
+  </si>
+  <si>
+    <t>Kill</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>UpLevel</t>
+  </si>
+  <si>
+    <t>TaskProgressType</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
 </sst>
 </file>
@@ -1252,22 +1309,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,13 +1358,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1473,7 +1527,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A4:L86" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A4:L102" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="12">
     <tableColumn id="1" name="列1" dataDxfId="0"/>
     <tableColumn id="2" name="列2" dataDxfId="1"/>
@@ -1750,10 +1804,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -1770,1493 +1824,1574 @@
     <col min="10" max="10" width="8.33333333333333" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.1111111111111" style="3" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="52.95" spans="1:12">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="19"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" ht="18.15" spans="1:12">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="J10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="16" t="str">
         <f>K13</f>
         <v>全部</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I14" s="16" t="str">
         <f>K14</f>
         <v>装备</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="15"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I15" s="16" t="str">
         <f>K15</f>
         <v>消耗品</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="15"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I16" s="16" t="str">
         <f>K16</f>
         <v>材料</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="15"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I17" s="16" t="str">
         <f>K17</f>
         <v>坐骑</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="16"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>53</v>
       </c>
       <c r="I20" s="16"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" ht="16.2" spans="1:12">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" ht="16.2" spans="1:12">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" ht="16.2" spans="1:12">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" ht="16.2" spans="1:12">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" ht="16.2" spans="1:12">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" ht="16.2" spans="1:12">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" ht="16.2" spans="1:12">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" ht="16.2" spans="1:12">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" ht="16.2" spans="1:12">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" ht="16.2" spans="1:12">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" ht="16.2" spans="1:12">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" ht="16.2" spans="1:12">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" ht="16.2" spans="1:12">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" ht="16.2" spans="1:12">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" ht="16.2" spans="1:12">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" ht="16.2" spans="1:12">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
     </row>
     <row r="37" ht="16.2" spans="1:12">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
     </row>
     <row r="38" ht="16.2" spans="1:12">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" ht="16.2" spans="1:12">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" ht="16.2" spans="1:12">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" ht="16.2" spans="1:12">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
     </row>
     <row r="42" ht="16.2" spans="1:12">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
     </row>
     <row r="43" ht="16.2" spans="1:12">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
     </row>
     <row r="44" ht="16.2" spans="1:12">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
     </row>
     <row r="45" ht="16.2" spans="1:12">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
     </row>
     <row r="46" ht="16.2" spans="1:12">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
     </row>
     <row r="47" ht="16.2" spans="1:12">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
     </row>
     <row r="48" ht="16.2" spans="1:12">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
     </row>
     <row r="49" ht="16.2" spans="1:12">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
     </row>
     <row r="50" ht="16.2" spans="1:12">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
     </row>
     <row r="51" ht="16.2" spans="1:12">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
     </row>
     <row r="52" ht="16.2" spans="1:12">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
     </row>
     <row r="53" ht="16.2" spans="1:12">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
     </row>
     <row r="54" ht="16.2" spans="1:12">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
     </row>
     <row r="55" ht="16.2" spans="1:12">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
     </row>
     <row r="56" ht="16.2" spans="1:12">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
     </row>
     <row r="57" ht="16.2" spans="1:12">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
     </row>
     <row r="58" ht="16.2" spans="1:12">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
     </row>
     <row r="59" ht="16.2" spans="1:12">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
     </row>
     <row r="60" ht="16.2" spans="1:12">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
     </row>
     <row r="61" ht="16.2" spans="1:12">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
     </row>
     <row r="62" ht="16.2" spans="1:12">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
     </row>
     <row r="63" ht="16.2" spans="1:12">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
       <c r="H63" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
     </row>
     <row r="64" ht="16.2" spans="1:12">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
     </row>
     <row r="65" ht="16.2" spans="1:12">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
     </row>
     <row r="66" ht="16.2" spans="1:12">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
     </row>
     <row r="67" ht="16.2" spans="1:12">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
     </row>
     <row r="68" ht="16.2" spans="1:12">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
     </row>
     <row r="69" ht="16.2" spans="1:12">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
       <c r="H69" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
     </row>
     <row r="70" ht="16.2" spans="1:12">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
       <c r="H70" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
     </row>
     <row r="71" ht="16.2" spans="1:12">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
       <c r="H71" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
     </row>
     <row r="72" ht="16.2" spans="1:12">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
       <c r="H72" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
     </row>
     <row r="73" ht="16.2" spans="1:12">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
       <c r="H73" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
     </row>
     <row r="74" ht="16.2" spans="1:12">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
     </row>
     <row r="75" ht="16.2" spans="1:12">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
     </row>
     <row r="76" ht="16.2" spans="1:12">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
     </row>
     <row r="77" ht="16.2" spans="1:12">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
       <c r="H77" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
     </row>
     <row r="78" ht="16.2" spans="1:12">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
     </row>
     <row r="79" ht="16.2" spans="1:12">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
     </row>
     <row r="80" ht="16.2" spans="1:12">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
     </row>
     <row r="81" ht="16.2" spans="1:12">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
     </row>
     <row r="82" ht="16.2" spans="1:12">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
       <c r="H82" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
     </row>
     <row r="83" ht="16.2" spans="1:12">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
       <c r="H83" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
     </row>
     <row r="84" ht="16.2" spans="1:12">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
       <c r="H84" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
     </row>
     <row r="85" ht="16.2" spans="1:12">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
       <c r="H85" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
     </row>
     <row r="86" ht="16.2" spans="1:12">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
       <c r="H86" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" ht="16.2" spans="2:8">
+      <c r="B87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" ht="16.2" spans="8:8">
+      <c r="H88" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I89" s="16"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="8:9">
+      <c r="H91" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9">
+      <c r="H92" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8">
+      <c r="H94" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="8:8">
+      <c r="H95" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8">
+      <c r="H96" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="8:8">
+      <c r="H97" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="H99" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8">
+      <c r="H100" s="4" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Config/Excel/Datas/__enums__.xlsx
+++ b/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -289,216 +289,6 @@
   </si>
   <si>
     <t>坐骑</t>
-  </si>
-  <si>
-    <t>NumericType</t>
-  </si>
-  <si>
-    <t>skip</t>
-  </si>
-  <si>
-    <t>SpeedBase</t>
-  </si>
-  <si>
-    <t>SpeedAdd</t>
-  </si>
-  <si>
-    <t>SpeedPct</t>
-  </si>
-  <si>
-    <t>SpeedFinalAdd</t>
-  </si>
-  <si>
-    <t>SpeedFinalPct</t>
-  </si>
-  <si>
-    <t>MaxHp</t>
-  </si>
-  <si>
-    <t>MaxHpBase</t>
-  </si>
-  <si>
-    <t>MaxHpAdd</t>
-  </si>
-  <si>
-    <t>MaxHpPct</t>
-  </si>
-  <si>
-    <t>MaxHpFinalAdd</t>
-  </si>
-  <si>
-    <t>MaxHpFinalPct</t>
-  </si>
-  <si>
-    <t>AOI</t>
-  </si>
-  <si>
-    <t>AOIBase</t>
-  </si>
-  <si>
-    <t>AOIAdd</t>
-  </si>
-  <si>
-    <t>AOIPct</t>
-  </si>
-  <si>
-    <t>AOIFinalAdd</t>
-  </si>
-  <si>
-    <t>AOIFinalPct</t>
-  </si>
-  <si>
-    <t>MaxMp</t>
-  </si>
-  <si>
-    <t>MaxMpBase</t>
-  </si>
-  <si>
-    <t>MaxMpAdd</t>
-  </si>
-  <si>
-    <t>MaxMpPct</t>
-  </si>
-  <si>
-    <t>MaxMpFinalAdd</t>
-  </si>
-  <si>
-    <t>MaxMpFinalPct</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>ADBase</t>
-  </si>
-  <si>
-    <t>ADAdd</t>
-  </si>
-  <si>
-    <t>ADPct</t>
-  </si>
-  <si>
-    <t>ADFinalAdd</t>
-  </si>
-  <si>
-    <t>ADFinalPct</t>
-  </si>
-  <si>
-    <t>AdditionalAD</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>HpBase</t>
-  </si>
-  <si>
-    <t>HpAdd</t>
-  </si>
-  <si>
-    <t>HpPct</t>
-  </si>
-  <si>
-    <t>HpFinalAdd</t>
-  </si>
-  <si>
-    <t>HpFinalPct</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>MPBase</t>
-  </si>
-  <si>
-    <t>MPAdd</t>
-  </si>
-  <si>
-    <t>MPPct</t>
-  </si>
-  <si>
-    <t>MPFinalAdd</t>
-  </si>
-  <si>
-    <t>MPFinalPct</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>DEFBase</t>
-  </si>
-  <si>
-    <t>DEFAdd</t>
-  </si>
-  <si>
-    <t>DEFPct</t>
-  </si>
-  <si>
-    <t>DEFFinalAdd</t>
-  </si>
-  <si>
-    <t>DEFFinalPct</t>
-  </si>
-  <si>
-    <t>DEFAddition</t>
-  </si>
-  <si>
-    <t>Dodge</t>
-  </si>
-  <si>
-    <t>DodgeBase</t>
-  </si>
-  <si>
-    <t>DodgeAdd</t>
-  </si>
-  <si>
-    <t>DodgePct</t>
-  </si>
-  <si>
-    <t>DodgeFinalAdd</t>
-  </si>
-  <si>
-    <t>DodgeFinalPct</t>
-  </si>
-  <si>
-    <t>DodgeAddition</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>CRIBase</t>
-  </si>
-  <si>
-    <t>CRIAdd</t>
-  </si>
-  <si>
-    <t>CRIPct</t>
-  </si>
-  <si>
-    <t>CRIFinalAdd</t>
-  </si>
-  <si>
-    <t>CRIFinalPct</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>APBase</t>
-  </si>
-  <si>
-    <t>APAdd</t>
-  </si>
-  <si>
-    <t>APPct</t>
-  </si>
-  <si>
-    <t>APFinalAdd</t>
-  </si>
-  <si>
-    <t>APFinalPct</t>
   </si>
   <si>
     <t>TaskType</t>
@@ -1309,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,9 +1112,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1356,9 +1143,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1527,7 +1311,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A4:L102" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A4:L37" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="12">
     <tableColumn id="1" name="列1" dataDxfId="0"/>
     <tableColumn id="2" name="列2" dataDxfId="1"/>
@@ -1804,10 +1588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -1819,1578 +1603,350 @@
     <col min="5" max="5" width="8.33333333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.1111111111111" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.1111111111111" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.1111111111111" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.33333333333333" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.33333333333333" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.1111111111111" style="3" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="52.95" spans="1:12">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" ht="18.15" spans="1:12">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" ht="18.15" spans="2:9">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+    </row>
+    <row r="5" spans="6:9">
+      <c r="F5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+    </row>
+    <row r="6" spans="6:9">
+      <c r="F6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+    </row>
+    <row r="7" spans="6:9">
+      <c r="F7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+    </row>
+    <row r="8" spans="6:9">
+      <c r="F8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+    </row>
+    <row r="9" spans="6:9">
+      <c r="F9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+    </row>
+    <row r="10" spans="6:9">
+      <c r="F10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+    </row>
+    <row r="11" spans="6:9">
+      <c r="F11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="12" ht="16.2" spans="6:11">
+      <c r="F12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="16" t="str">
+      <c r="I13" s="3" t="str">
         <f>K13</f>
         <v>全部</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+    </row>
+    <row r="14" spans="6:11">
+      <c r="F14" s="2"/>
+      <c r="H14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="16" t="str">
+      <c r="I14" s="3" t="str">
         <f>K14</f>
         <v>装备</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+    </row>
+    <row r="15" spans="6:11">
+      <c r="F15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="3" t="str">
         <f>K15</f>
         <v>消耗品</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+    </row>
+    <row r="16" spans="6:11">
+      <c r="F16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="16" t="str">
+      <c r="I16" s="3" t="str">
         <f>K16</f>
         <v>材料</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+    </row>
+    <row r="17" spans="6:11">
+      <c r="F17" s="2"/>
+      <c r="H17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="16" t="str">
+      <c r="I17" s="3" t="str">
         <f>K17</f>
         <v>坐骑</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="18" ht="16.2" spans="6:6">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="4" t="s">
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
+    </row>
+    <row r="22" ht="16.2" spans="2:11">
+      <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" ht="16.2" spans="1:12">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
+      <c r="F22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="6:11">
+      <c r="F23" s="2"/>
+      <c r="H23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" ht="16.2" spans="1:12">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" ht="16.2" spans="1:12">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="H24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" ht="16.2" spans="1:12">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" ht="16.2" spans="1:12">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
+    </row>
+    <row r="25" spans="8:9">
+      <c r="H25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" ht="16.2" spans="1:12">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" ht="16.2" spans="1:12">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" ht="16.2" spans="1:12">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="H27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" ht="16.2" spans="1:12">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" ht="16.2" spans="1:12">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" ht="16.2" spans="1:12">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" ht="16.2" spans="1:12">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" ht="16.2" spans="1:12">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" ht="16.2" spans="1:12">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" ht="16.2" spans="1:12">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" ht="16.2" spans="1:12">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" ht="16.2" spans="1:12">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" ht="16.2" spans="1:12">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" ht="16.2" spans="1:12">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" ht="16.2" spans="1:12">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" ht="16.2" spans="1:12">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" ht="16.2" spans="1:12">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" ht="16.2" spans="1:12">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" ht="16.2" spans="1:12">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" ht="16.2" spans="1:12">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" ht="16.2" spans="1:12">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" ht="16.2" spans="1:12">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" ht="16.2" spans="1:12">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" ht="16.2" spans="1:12">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" ht="16.2" spans="1:12">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" ht="16.2" spans="1:12">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" ht="16.2" spans="1:12">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" ht="16.2" spans="1:12">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" ht="16.2" spans="1:12">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" ht="16.2" spans="1:12">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" ht="16.2" spans="1:12">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" ht="16.2" spans="1:12">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" ht="16.2" spans="1:12">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" ht="16.2" spans="1:12">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-    </row>
-    <row r="60" ht="16.2" spans="1:12">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" ht="16.2" spans="1:12">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-    </row>
-    <row r="62" ht="16.2" spans="1:12">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" ht="16.2" spans="1:12">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" ht="16.2" spans="1:12">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" ht="16.2" spans="1:12">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" ht="16.2" spans="1:12">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" ht="16.2" spans="1:12">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" ht="16.2" spans="1:12">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" ht="16.2" spans="1:12">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" ht="16.2" spans="1:12">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" ht="16.2" spans="1:12">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" ht="16.2" spans="1:12">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" ht="16.2" spans="1:12">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" ht="16.2" spans="1:12">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" ht="16.2" spans="1:12">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-    </row>
-    <row r="76" ht="16.2" spans="1:12">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" ht="16.2" spans="1:12">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-    </row>
-    <row r="78" ht="16.2" spans="1:12">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-    </row>
-    <row r="79" ht="16.2" spans="1:12">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-    </row>
-    <row r="80" ht="16.2" spans="1:12">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" ht="16.2" spans="1:12">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-    </row>
-    <row r="82" ht="16.2" spans="1:12">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" ht="16.2" spans="1:12">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" ht="16.2" spans="1:12">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" ht="16.2" spans="1:12">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" ht="16.2" spans="1:12">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" ht="16.2" spans="2:8">
-      <c r="B87" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" ht="16.2" spans="8:8">
-      <c r="H88" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" s="16"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I90" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="8:9">
-      <c r="H91" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="8:9">
-      <c r="H92" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="8:8">
-      <c r="H94" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="8:8">
-      <c r="H95" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="8:8">
-      <c r="H96" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="8:8">
-      <c r="H97" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="8:8">
-      <c r="H99" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="8:8">
-      <c r="H100" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Datas/__enums__.xlsx
+++ b/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -1590,8 +1590,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -1788,6 +1788,9 @@
       <c r="F13" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>40</v>
       </c>

--- a/Config/Excel/Datas/__enums__.xlsx
+++ b/Config/Excel/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -1590,8 +1590,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -1870,13 +1870,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" ht="16.2" spans="2:11">
+    <row r="22" spans="2:11">
       <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K22" s="2"/>
     </row>
